--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -16,6 +16,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,37 +351,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
